--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GISFY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GISFY\Desktop\agri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08DDBB2C-3426-41D1-98E5-BD951251B0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CC3A51-6734-4A00-B9B3-564F019D0EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EFB5453-12EB-425A-89A6-F7D7E1BDE604}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>State</t>
   </si>
   <si>
-    <t>Policy Number</t>
-  </si>
-  <si>
     <t>Applicant</t>
+  </si>
+  <si>
+    <t>Policy_Number</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
